--- a/public/static/excels/lop-hoc-example.xlsx
+++ b/public/static/excels/lop-hoc-example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\projects\b4e_new\school\frontend\public\static\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangNam\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4537247D-CFF4-4688-9E9B-F15E212A6792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F28F70-318B-42A3-AD51-E7942FDEA6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21630" yWindow="735" windowWidth="17280" windowHeight="9075" xr2:uid="{194ED8E6-22FF-47CA-A55C-F7687FEAEDC3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6588259A-1796-4F86-8C8C-6B09693BB953}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Kì học</t>
   </si>
@@ -51,25 +51,31 @@
     <t>DSSV</t>
   </si>
   <si>
-    <t>SSH1170</t>
-  </si>
-  <si>
-    <t>GV001</t>
-  </si>
-  <si>
-    <t>20201234, 202012345, 20201236, 20206787</t>
-  </si>
-  <si>
-    <t>GV002</t>
+    <t>SSH1050</t>
+  </si>
+  <si>
+    <t>20161234, 201612345, 20161236, 20161237</t>
+  </si>
+  <si>
+    <t>EM1170</t>
+  </si>
+  <si>
+    <t>IT1110</t>
   </si>
   <si>
     <t>MI1110</t>
   </si>
   <si>
-    <t>GV003</t>
-  </si>
-  <si>
-    <t>GV004</t>
+    <t>GV1234</t>
+  </si>
+  <si>
+    <t>GV1235</t>
+  </si>
+  <si>
+    <t>GV1236</t>
+  </si>
+  <si>
+    <t>GV1237</t>
   </si>
 </sst>
 </file>
@@ -420,17 +426,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82867A81-B27E-40FB-BCDE-C42EB66FB44A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7540489C-1697-4852-8CB0-7F4AE9616F5A}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,10 +466,10 @@
         <v>117123</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,16 +477,16 @@
         <v>20201</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>117124</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -490,16 +494,16 @@
         <v>20201</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>685542</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -513,14 +517,13 @@
         <v>685547</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/static/excels/lop-hoc-example.xlsx
+++ b/public/static/excels/lop-hoc-example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangNam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\projects\b4e_new\school\frontend\public\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98F28F70-318B-42A3-AD51-E7942FDEA6DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5DBB5E-DA03-4631-A032-CCC024F85808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6588259A-1796-4F86-8C8C-6B09693BB953}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>SSH1050</t>
   </si>
   <si>
-    <t>20161234, 201612345, 20161236, 20161237</t>
-  </si>
-  <si>
     <t>EM1170</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>GV1237</t>
+  </si>
+  <si>
+    <t>20161234, 20161235, 20161236, 20161237</t>
   </si>
 </sst>
 </file>
@@ -430,7 +430,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" activeCellId="1" sqref="E4 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,10 +466,10 @@
         <v>117123</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -477,16 +477,16 @@
         <v>20201</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>117124</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -494,16 +494,16 @@
         <v>20201</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>685542</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -511,16 +511,16 @@
         <v>20201</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>685547</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/excels/lop-hoc-example.xlsx
+++ b/public/static/excels/lop-hoc-example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\projects\b4e_new\school\frontend\public\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5DBB5E-DA03-4631-A032-CCC024F85808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A02C54-71E4-4C87-AFC5-F478771069DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{6588259A-1796-4F86-8C8C-6B09693BB953}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Kì học</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>20161234, 20161235, 20161236, 20161237</t>
+  </si>
+  <si>
+    <t>Mã GVU</t>
+  </si>
+  <si>
+    <t>GVU1234</t>
+  </si>
+  <si>
+    <t>GVU1235</t>
+  </si>
+  <si>
+    <t>GVU1236</t>
+  </si>
+  <si>
+    <t>GVU1237</t>
   </si>
 </sst>
 </file>
@@ -427,18 +442,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7540489C-1697-4852-8CB0-7F4AE9616F5A}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" activeCellId="1" sqref="E4 E5"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,10 +469,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>20201</v>
       </c>
@@ -469,10 +489,13 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20201</v>
       </c>
@@ -486,10 +509,13 @@
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20201</v>
       </c>
@@ -503,10 +529,13 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>20201</v>
       </c>
@@ -520,10 +549,14 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>